--- a/Data/Codigos Comunas.xlsx
+++ b/Data/Codigos Comunas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr_Unidades_vendidas\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDDA8B0-AFCA-4CBD-AB03-5F6FECD463DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CD3DB-EBB2-4C72-BF9B-EC014231FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F7786857-251F-4637-993D-DB4F06E35BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Metropolitana de Santiago" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Metropolitana de Santiago'!$A$1:$C$56</definedName>
@@ -747,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A018B683-969C-4690-82AC-3EDC9F2B9AED}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,4 +1380,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096E671D-56CE-4540-A156-638C56BB0FF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>